--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46EB631-0FE0-442B-8E02-75BC1C057DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83407A08-9498-4DFE-A87A-CCD6E6050568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,47 +56,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>400자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4000경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700간</t>
+  </si>
+  <si>
+    <t>1정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2항극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,24 +606,24 @@
         <v>4E+19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>73</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2E+20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>4.0000000000000002E+26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>73</v>
@@ -553,63 +632,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1E+21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>4.9999999999999998E+34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>73</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>5E+21</v>
+        <v>2.4999999999999999E+37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>73</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>3E+22</v>
+        <v>7E+38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>73</v>
       </c>
       <c r="E6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>9.9999999999999992E+22</v>
+        <v>1E+40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -618,75 +697,75 @@
         <v>73</v>
       </c>
       <c r="E7" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>4.9999999999999999E+23</v>
+        <v>2.9999999999999998E+41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>73</v>
       </c>
       <c r="E8" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>2.9999999999999999E+24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>1E+43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>73</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2.0000000000000002E+25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4.0000000000000004E+44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>73</v>
       </c>
       <c r="E10" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>8.0000000000000007E+25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>7.0000000000000005E+45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,16 +773,356 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>4.0000000000000002E+26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>7.9999999999999999E+46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>73</v>
       </c>
       <c r="E12" s="1">
-        <v>55</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E+48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.9999999999999998E+49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.0000000000000001E+50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2E+52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2E+53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7.0000000000000002E+54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9E+55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6.9999999999999995E+57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.9999999999999999E+59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.9999999999999997E+60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.9999999999999995E+60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.9999999999999999E+61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.0000000000000002E+61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1E+62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.5E+62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.0000000000000001E+62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2.5000000000000001E+62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3E+62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.0000000000000001E+62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1">
+        <v>73</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.0000000000000003E+62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83407A08-9498-4DFE-A87A-CCD6E6050568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201991C-0C56-4391-B9E8-8E2A93ACD34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,30 @@
   </si>
   <si>
     <t>500나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,6 +1149,108 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.0000000000000001E+63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3E+63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.0000000000000001E+63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1E+64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2E+64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3.0000000000000002E+64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201991C-0C56-4391-B9E8-8E2A93ACD34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F3E788-DBBF-460A-8D97-430C00D0EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>3불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -1251,6 +1275,108 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>9.9999999999999999E+64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1">
+        <v>73</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3.0000000000000002E+65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.0000000000000004E+65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1">
+        <v>73</v>
+      </c>
+      <c r="E41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>9.9999999999999995E+65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1">
+        <v>73</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.5E+66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>73</v>
+      </c>
+      <c r="E43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.9999999999999999E+66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1">
+        <v>73</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F3E788-DBBF-460A-8D97-430C00D0EF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA434995-1232-4140-A32B-D8A0B0D00C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,34 @@
   </si>
   <si>
     <t>200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1377,6 +1405,125 @@
         <v>30</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2.5E+66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3E+66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3.9999999999999998E+66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4.9999999999999999E+66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6E+66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="1">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7.9999999999999996E+66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1">
+        <v>73</v>
+      </c>
+      <c r="E50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA434995-1232-4140-A32B-D8A0B0D00C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BCC2C-E8D0-4D77-AD1C-1532F759B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>1000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,6 +1540,74 @@
         <v>30</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.2E+67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.5E+67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1.7999999999999999E+67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1">
+        <v>73</v>
+      </c>
+      <c r="E54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.1000000000000001E+67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298BCC2C-E8D0-4D77-AD1C-1532F759B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5B36E-E091-4235-982E-09482C46254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,34 @@
   </si>
   <si>
     <t>2100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1608,6 +1636,125 @@
         <v>30</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.4999999999999999E+67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1">
+        <v>73</v>
+      </c>
+      <c r="E56" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3.0000000000000001E+67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3.5E+67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4.4999999999999998E+67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>73</v>
+      </c>
+      <c r="E59" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6.0000000000000002E+67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1">
+        <v>73</v>
+      </c>
+      <c r="E60" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>7.9999999999999999E+67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1">
+        <v>73</v>
+      </c>
+      <c r="E61" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="1">
+        <v>73</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5B36E-E091-4235-982E-09482C46254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC830C4D-AC2A-4719-AEB1-03D1E9BF268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무2000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무5000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1755,6 +1763,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.2E+68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="1">
+        <v>73</v>
+      </c>
+      <c r="E63" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.5000000000000001E+68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="1">
+        <v>73</v>
+      </c>
+      <c r="E64" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC830C4D-AC2A-4719-AEB1-03D1E9BF268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01428B2-615E-44D0-B7FD-EBC1CC1F9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,26 @@
   </si>
   <si>
     <t>1무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1797,6 +1817,91 @@
         <v>30</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.9999999999999999E+68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="1">
+        <v>73</v>
+      </c>
+      <c r="E65" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2.5000000000000002E+68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="1">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3.0000000000000002E+68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="1">
+        <v>73</v>
+      </c>
+      <c r="E67" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3.9999999999999998E+68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1">
+        <v>73</v>
+      </c>
+      <c r="E68" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5.0000000000000004E+68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="1">
+        <v>73</v>
+      </c>
+      <c r="E69" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01428B2-615E-44D0-B7FD-EBC1CC1F9F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A146-57A6-41EA-A81E-6FE637DA28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,38 @@
   </si>
   <si>
     <t>5무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67:E69"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1902,6 +1934,142 @@
         <v>30</v>
       </c>
     </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>6.9999999999999995E+68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="1">
+        <v>73</v>
+      </c>
+      <c r="E70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1.0000000000000001E+69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1">
+        <v>73</v>
+      </c>
+      <c r="E71" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1.4999999999999999E+69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1">
+        <v>73</v>
+      </c>
+      <c r="E72" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2.0000000000000001E+69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="1">
+        <v>73</v>
+      </c>
+      <c r="E73" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2.9999999999999998E+69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5.0000000000000004E+69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="1">
+        <v>73</v>
+      </c>
+      <c r="E75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>6.9999999999999997E+69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="1">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.0000000000000001E+70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1">
+        <v>73</v>
+      </c>
+      <c r="E77" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A146-57A6-41EA-A81E-6FE637DA28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3B604-2A45-4D9D-A28F-32D4FF3C2A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,26 @@
   </si>
   <si>
     <t>100무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2070,6 +2090,91 @@
         <v>30</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1.3E+70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="1">
+        <v>73</v>
+      </c>
+      <c r="E78" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1.6000000000000001E+70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="1">
+        <v>73</v>
+      </c>
+      <c r="E79" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2.0000000000000001E+70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="1">
+        <v>73</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2.5000000000000001E+70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1">
+        <v>73</v>
+      </c>
+      <c r="E81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2.9999999999999998E+70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="1">
+        <v>73</v>
+      </c>
+      <c r="E82" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3B604-2A45-4D9D-A28F-32D4FF3C2A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00CEC1-3A7C-4A54-A933-2047A6063961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="30810" yWindow="630" windowWidth="12255" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2175,6 +2183,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4.0000000000000002E+71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="1">
+        <v>73</v>
+      </c>
+      <c r="E83" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>4.9999999999999997E+71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="1">
+        <v>73</v>
+      </c>
+      <c r="E84" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00CEC1-3A7C-4A54-A933-2047A6063961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6735847-5FB4-4139-839F-4C2D745EC467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="630" windowWidth="12255" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,42 @@
   </si>
   <si>
     <t>5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,11 +810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2188,10 +2224,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <v>4.0000000000000002E+71</v>
+        <v>4.0000000000000003E+70</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1">
         <v>73</v>
@@ -2205,15 +2241,168 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
+        <v>5.9999999999999995E+70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="1">
+        <v>73</v>
+      </c>
+      <c r="E84" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8.0000000000000006E+70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="1">
+        <v>73</v>
+      </c>
+      <c r="E85" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1E+71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="1">
+        <v>73</v>
+      </c>
+      <c r="E86" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.3E+71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="1">
+        <v>73</v>
+      </c>
+      <c r="E87" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.6000000000000001E+71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="1">
+        <v>73</v>
+      </c>
+      <c r="E88" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2.0000000000000001E+71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="1">
+        <v>73</v>
+      </c>
+      <c r="E89" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2.4999999999999999E+71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="1">
+        <v>73</v>
+      </c>
+      <c r="E90" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3.0000000000000001E+71</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="1">
+        <v>73</v>
+      </c>
+      <c r="E91" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4.0000000000000002E+71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1">
+        <v>73</v>
+      </c>
+      <c r="E92" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
         <v>4.9999999999999997E+71</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C93" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="1">
-        <v>73</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="D93" s="1">
+        <v>73</v>
+      </c>
+      <c r="E93" s="1">
         <v>30</v>
       </c>
     </row>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6735847-5FB4-4139-839F-4C2D745EC467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4CE9E2-222B-4E29-8307-2721FCB4DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,26 @@
   </si>
   <si>
     <t>3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대6000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2406,6 +2426,91 @@
         <v>30</v>
       </c>
     </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>6.9999999999999998E+71</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="1">
+        <v>73</v>
+      </c>
+      <c r="E94" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="1">
+        <v>73</v>
+      </c>
+      <c r="E95" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1.2999999999999999E+72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="1">
+        <v>73</v>
+      </c>
+      <c r="E96" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1.6000000000000001E+72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="1">
+        <v>73</v>
+      </c>
+      <c r="E97" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1.9999999999999999E+72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="1">
+        <v>73</v>
+      </c>
+      <c r="E98" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4CE9E2-222B-4E29-8307-2721FCB4DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC04C9F-D582-45D4-8E5D-DA2E12B3D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,22 @@
   </si>
   <si>
     <t>2대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,11 +846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2511,6 +2527,74 @@
         <v>30</v>
       </c>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2.5E+72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="1">
+        <v>73</v>
+      </c>
+      <c r="E99" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>3E+72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="1">
+        <v>73</v>
+      </c>
+      <c r="E100" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3.9999999999999998E+72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="1">
+        <v>73</v>
+      </c>
+      <c r="E101" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4.9999999999999999E+72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="1">
+        <v>73</v>
+      </c>
+      <c r="E102" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC04C9F-D582-45D4-8E5D-DA2E12B3D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB01196E-A207-4B23-A894-B47AD6891DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,62 @@
   </si>
   <si>
     <t>5대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2595,6 +2651,244 @@
         <v>30</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>7.0000000000000002E+72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="1">
+        <v>73</v>
+      </c>
+      <c r="E103" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>9.9999999999999998E+72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="1">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.5000000000000001E+73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="1">
+        <v>73</v>
+      </c>
+      <c r="E105" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2E+73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="1">
+        <v>73</v>
+      </c>
+      <c r="E106" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2.4999999999999999E+73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="1">
+        <v>73</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3.0000000000000001E+73</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="1">
+        <v>73</v>
+      </c>
+      <c r="E108" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>3.9999999999999999E+73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="1">
+        <v>73</v>
+      </c>
+      <c r="E109" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4.9999999999999998E+73</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="1">
+        <v>73</v>
+      </c>
+      <c r="E110" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>6.0000000000000002E+73</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="1">
+        <v>73</v>
+      </c>
+      <c r="E111" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>7.9999999999999999E+73</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="1">
+        <v>73</v>
+      </c>
+      <c r="E112" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>9.9999999999999995E+73</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="1">
+        <v>73</v>
+      </c>
+      <c r="E113" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1.3E+74</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="1">
+        <v>73</v>
+      </c>
+      <c r="E114" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1.6E+74</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1">
+        <v>73</v>
+      </c>
+      <c r="E115" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1.9999999999999999E+74</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="1">
+        <v>73</v>
+      </c>
+      <c r="E116" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB01196E-A207-4B23-A894-B47AD6891DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDC459-9F3E-4723-AC3B-9055E7D40F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,22 @@
   </si>
   <si>
     <t>200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,11 +918,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2889,6 +2905,74 @@
         <v>30</v>
       </c>
     </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2.4999999999999998E+74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="1">
+        <v>73</v>
+      </c>
+      <c r="E117" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3E+74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="1">
+        <v>73</v>
+      </c>
+      <c r="E118" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3.9999999999999998E+74</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="1">
+        <v>73</v>
+      </c>
+      <c r="E119" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>4.9999999999999996E+74</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="1">
+        <v>73</v>
+      </c>
+      <c r="E120" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDC459-9F3E-4723-AC3B-9055E7D40F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5C3C9-AB81-44A6-83E5-DC3B4F161BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,26 @@
   </si>
   <si>
     <t>500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2973,6 +2993,91 @@
         <v>30</v>
       </c>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7.0000000000000003E+74</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="1">
+        <v>73</v>
+      </c>
+      <c r="E121" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>8.9999999999999999E+74</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="1">
+        <v>73</v>
+      </c>
+      <c r="E122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1.2E+75</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="1">
+        <v>73</v>
+      </c>
+      <c r="E123" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.5E+75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="1">
+        <v>73</v>
+      </c>
+      <c r="E124" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.9999999999999999E+75</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="1">
+        <v>73</v>
+      </c>
+      <c r="E125" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5C3C9-AB81-44A6-83E5-DC3B4F161BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB776DE2-933B-4079-993F-CE5D33E9BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,54 @@
   </si>
   <si>
     <t>2000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁5000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3078,6 +3126,210 @@
         <v>30</v>
       </c>
     </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3.9999999999999997E+75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="1">
+        <v>73</v>
+      </c>
+      <c r="E126" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6E+75</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="1">
+        <v>73</v>
+      </c>
+      <c r="E127" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>7.9999999999999994E+75</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="1">
+        <v>73</v>
+      </c>
+      <c r="E128" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1E+76</v>
+      </c>
+      <c r="C129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="1">
+        <v>73</v>
+      </c>
+      <c r="E129" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1.4999999999999999E+76</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="1">
+        <v>73</v>
+      </c>
+      <c r="E130" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2.0000000000000001E+76</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="1">
+        <v>73</v>
+      </c>
+      <c r="E131" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2.9999999999999998E+76</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="1">
+        <v>73</v>
+      </c>
+      <c r="E132" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>4.9999999999999999E+76</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="1">
+        <v>73</v>
+      </c>
+      <c r="E133" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>7E+76</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="1">
+        <v>73</v>
+      </c>
+      <c r="E134" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>9.9999999999999998E+76</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="1">
+        <v>73</v>
+      </c>
+      <c r="E135" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.4999999999999999E+77</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="1">
+        <v>73</v>
+      </c>
+      <c r="E136" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2E+77</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="1">
+        <v>73</v>
+      </c>
+      <c r="E137" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB776DE2-933B-4079-993F-CE5D33E9BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8CF43-A265-4BD4-9ADD-483897867863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3735" yWindow="660" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,22 @@
   </si>
   <si>
     <t>20겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3330,6 +3346,74 @@
         <v>30</v>
       </c>
     </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2.9999999999999998E+77</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="1">
+        <v>73</v>
+      </c>
+      <c r="E138" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5E+77</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="1">
+        <v>73</v>
+      </c>
+      <c r="E139" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>7.0000000000000003E+77</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="1">
+        <v>73</v>
+      </c>
+      <c r="E140" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1E+78</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="1">
+        <v>73</v>
+      </c>
+      <c r="E141" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB8CF43-A265-4BD4-9ADD-483897867863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65787AB-07B1-4134-9A29-6DF836D900D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="660" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,30 @@
   </si>
   <si>
     <t>100겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3414,6 +3438,108 @@
         <v>30</v>
       </c>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.4999999999999999E+78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="1">
+        <v>73</v>
+      </c>
+      <c r="E142" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2E+78</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="1">
+        <v>73</v>
+      </c>
+      <c r="E143" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.4999999999999999E+78</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="1">
+        <v>73</v>
+      </c>
+      <c r="E144" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>2.9999999999999998E+78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="1">
+        <v>73</v>
+      </c>
+      <c r="E145" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>4E+78</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="1">
+        <v>73</v>
+      </c>
+      <c r="E146" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>4.9999999999999998E+78</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="1">
+        <v>73</v>
+      </c>
+      <c r="E147" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65787AB-07B1-4134-9A29-6DF836D900D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A97176-7451-4565-928D-5A9F57163F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +636,17 @@
   </si>
   <si>
     <t>500겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600겁</t>
+  </si>
+  <si>
+    <t>800겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3540,6 +3551,57 @@
         <v>30</v>
       </c>
     </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>5.9999999999999996E+78</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="1">
+        <v>73</v>
+      </c>
+      <c r="E148" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>8.0000000000000001E+78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="1">
+        <v>73</v>
+      </c>
+      <c r="E149" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>9.9999999999999997E+78</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="1">
+        <v>73</v>
+      </c>
+      <c r="E150" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A97176-7451-4565-928D-5A9F57163F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315ACA3-7026-425A-AB34-9DEAD75364E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,42 @@
   </si>
   <si>
     <t>1000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,11 +1073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3602,6 +3638,159 @@
         <v>30</v>
       </c>
     </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.9999999999999999E+79</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="1">
+        <v>73</v>
+      </c>
+      <c r="E151" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>5E+79</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="1">
+        <v>73</v>
+      </c>
+      <c r="E152" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1E+80</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="1">
+        <v>73</v>
+      </c>
+      <c r="E153" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2E+80</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="1">
+        <v>73</v>
+      </c>
+      <c r="E154" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4E+80</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="1">
+        <v>73</v>
+      </c>
+      <c r="E155" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5.9999999999999997E+80</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="1">
+        <v>73</v>
+      </c>
+      <c r="E156" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="1">
+        <v>73</v>
+      </c>
+      <c r="E157" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.5E+81</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="1">
+        <v>73</v>
+      </c>
+      <c r="E158" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.9999999999999998E+81</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="1">
+        <v>73</v>
+      </c>
+      <c r="E159" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315ACA3-7026-425A-AB34-9DEAD75364E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753D6F2-8C3E-4679-8BDB-3C74ADC41B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,34 @@
   </si>
   <si>
     <t>20업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,11 +1101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3791,6 +3819,125 @@
         <v>30</v>
       </c>
     </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>4.9999999999999998E+81</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="1">
+        <v>73</v>
+      </c>
+      <c r="E160" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="1">
+        <v>73</v>
+      </c>
+      <c r="E161" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1.9999999999999999E+82</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" s="1">
+        <v>73</v>
+      </c>
+      <c r="E162" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <v>5.0000000000000002E+82</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" s="1">
+        <v>73</v>
+      </c>
+      <c r="E163" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1E+83</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="1">
+        <v>73</v>
+      </c>
+      <c r="E164" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2.0000000000000001E+83</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="1">
+        <v>73</v>
+      </c>
+      <c r="E165" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5.0000000000000003E+83</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="1">
+        <v>73</v>
+      </c>
+      <c r="E166" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753D6F2-8C3E-4679-8BDB-3C74ADC41B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5619F2-39B2-4FE4-9A23-5AA3DC7A857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,34 @@
   </si>
   <si>
     <t>5000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25긍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3938,6 +3966,125 @@
         <v>30</v>
       </c>
     </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <v>8.0000000000000002E+83</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" s="1">
+        <v>73</v>
+      </c>
+      <c r="E167" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="1">
+        <v>73</v>
+      </c>
+      <c r="E168" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <v>2.0000000000000001E+84</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="1">
+        <v>73</v>
+      </c>
+      <c r="E169" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5.0000000000000001E+84</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="1">
+        <v>73</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1E+85</v>
+      </c>
+      <c r="C171" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="1">
+        <v>73</v>
+      </c>
+      <c r="E171" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2E+85</v>
+      </c>
+      <c r="C172" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="1">
+        <v>73</v>
+      </c>
+      <c r="E172" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <v>2.5E+85</v>
+      </c>
+      <c r="C173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="1">
+        <v>73</v>
+      </c>
+      <c r="E173" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5619F2-39B2-4FE4-9A23-5AA3DC7A857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7837DE2-43B6-4FED-9377-33FC1E9EA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +739,38 @@
   </si>
   <si>
     <t>25긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4085,6 +4117,142 @@
         <v>30</v>
       </c>
     </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1E+86</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="1">
+        <v>73</v>
+      </c>
+      <c r="E174" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <v>4.9999999999999998E+86</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="1">
+        <v>73</v>
+      </c>
+      <c r="E175" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="1">
+        <v>73</v>
+      </c>
+      <c r="E176" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <v>2.9999999999999999E+87</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="1">
+        <v>73</v>
+      </c>
+      <c r="E177" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <v>4.9999999999999998E+87</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="1">
+        <v>73</v>
+      </c>
+      <c r="E178" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" s="1">
+        <v>73</v>
+      </c>
+      <c r="E179" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <v>1.9999999999999999E+88</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" s="1">
+        <v>73</v>
+      </c>
+      <c r="E180" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5E+88</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="1">
+        <v>73</v>
+      </c>
+      <c r="E181" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7837DE2-43B6-4FED-9377-33FC1E9EA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B99D54-6316-4AE1-9CF1-707E6C669489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -771,6 +771,22 @@
   </si>
   <si>
     <t>5갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,11 +1177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4253,6 +4269,74 @@
         <v>30</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="C182" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" s="1">
+        <v>73</v>
+      </c>
+      <c r="E182" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2E+89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" s="1">
+        <v>73</v>
+      </c>
+      <c r="E183" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3">
+        <v>3.0000000000000001E+89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184" s="1">
+        <v>73</v>
+      </c>
+      <c r="E184" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3">
+        <v>4.9999999999999998E+89</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="1">
+        <v>73</v>
+      </c>
+      <c r="E185" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B99D54-6316-4AE1-9CF1-707E6C669489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA78CEEA-3629-4E53-871A-A2423F3850B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +787,42 @@
   </si>
   <si>
     <t>50갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1177,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4337,6 +4373,159 @@
         <v>30</v>
       </c>
     </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3">
+        <v>6.0000000000000003E+89</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" s="1">
+        <v>73</v>
+      </c>
+      <c r="E186" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3">
+        <v>7.0000000000000001E+89</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" s="1">
+        <v>73</v>
+      </c>
+      <c r="E187" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3">
+        <v>8E+89</v>
+      </c>
+      <c r="C188" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" s="1">
+        <v>73</v>
+      </c>
+      <c r="E188" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3">
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="1">
+        <v>73</v>
+      </c>
+      <c r="E189" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1.4999999999999999E+90</v>
+      </c>
+      <c r="C190" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="1">
+        <v>73</v>
+      </c>
+      <c r="E190" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1.9999999999999999E+90</v>
+      </c>
+      <c r="C191" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191" s="1">
+        <v>73</v>
+      </c>
+      <c r="E191" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2.5000000000000002E+90</v>
+      </c>
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" s="1">
+        <v>73</v>
+      </c>
+      <c r="E192" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2.9999999999999998E+90</v>
+      </c>
+      <c r="C193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193" s="1">
+        <v>73</v>
+      </c>
+      <c r="E193" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3">
+        <v>3.9999999999999999E+90</v>
+      </c>
+      <c r="C194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194" s="1">
+        <v>73</v>
+      </c>
+      <c r="E194" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
